--- a/Modelos em Python/resultados_com_erros_modelos_resto.xlsx
+++ b/Modelos em Python/resultados_com_erros_modelos_resto.xlsx
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="11">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="23">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="35">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="47">
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="59">
@@ -3236,13 +3236,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="71">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="83">
@@ -4196,13 +4196,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J94" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="95">
@@ -4676,13 +4676,13 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="107">
@@ -5156,13 +5156,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="119">
@@ -5636,13 +5636,13 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="131">
@@ -6116,13 +6116,13 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I142" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J142" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="143">
@@ -6596,13 +6596,13 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="155">
@@ -7076,13 +7076,13 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="167">
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="179">
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I190" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J190" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="191">
@@ -8516,13 +8516,13 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I202" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="203">
@@ -8996,13 +8996,13 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="215">
@@ -9476,13 +9476,13 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I226" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="227">
@@ -9956,13 +9956,13 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I238" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J238" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="239">
@@ -10436,13 +10436,13 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I250" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="251">
@@ -10916,13 +10916,13 @@
         </is>
       </c>
       <c r="H262" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I262" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="263">
@@ -11396,13 +11396,13 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I274" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="275">
@@ -11876,13 +11876,13 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I286" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J286" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="287">
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I298" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="299">
@@ -12836,13 +12836,13 @@
         </is>
       </c>
       <c r="H310" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I310" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="311">
@@ -13316,13 +13316,13 @@
         </is>
       </c>
       <c r="H322" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I322" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J322" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="323">
@@ -13796,13 +13796,13 @@
         </is>
       </c>
       <c r="H334" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I334" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J334" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="335">
@@ -14276,13 +14276,13 @@
         </is>
       </c>
       <c r="H346" t="n">
-        <v>16.64263268574139</v>
+        <v>16.64384955730806</v>
       </c>
       <c r="I346" t="n">
-        <v>0.5974100783192956</v>
+        <v>0.5974621839563153</v>
       </c>
       <c r="J346" t="n">
-        <v>0.1894982639580967</v>
+        <v>0.1895193421248145</v>
       </c>
     </row>
     <row r="347">
@@ -14756,13 +14756,13 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>18.18186832978838</v>
+        <v>18.18173315053408</v>
       </c>
       <c r="I358" t="n">
-        <v>0.6365760815285616</v>
+        <v>0.6365849313358724</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2047633264504809</v>
+        <v>0.2047713450640102</v>
       </c>
     </row>
     <row r="359">
@@ -15236,13 +15236,13 @@
         </is>
       </c>
       <c r="H370" t="n">
-        <v>18.37617211547587</v>
+        <v>18.37523045863365</v>
       </c>
       <c r="I370" t="n">
-        <v>0.6386773642034257</v>
+        <v>0.6386618512095427</v>
       </c>
       <c r="J370" t="n">
-        <v>0.2064107633488895</v>
+        <v>0.2064106047387013</v>
       </c>
     </row>
     <row r="371">
@@ -15716,13 +15716,13 @@
         </is>
       </c>
       <c r="H382" t="n">
-        <v>20.7033738477621</v>
+        <v>20.70356701213879</v>
       </c>
       <c r="I382" t="n">
-        <v>0.7121072243191627</v>
+        <v>0.7121208241911026</v>
       </c>
       <c r="J382" t="n">
-        <v>0.2311671834037106</v>
+        <v>0.231180506135086</v>
       </c>
     </row>
     <row r="383">
@@ -16196,13 +16196,13 @@
         </is>
       </c>
       <c r="H394" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I394" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J394" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="395">
@@ -16676,13 +16676,13 @@
         </is>
       </c>
       <c r="H406" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I406" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J406" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="407">
@@ -17156,13 +17156,13 @@
         </is>
       </c>
       <c r="H418" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I418" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J418" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="419">
@@ -17636,13 +17636,13 @@
         </is>
       </c>
       <c r="H430" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I430" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J430" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="431">
@@ -18116,13 +18116,13 @@
         </is>
       </c>
       <c r="H442" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I442" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J442" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="443">
@@ -18596,13 +18596,13 @@
         </is>
       </c>
       <c r="H454" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I454" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J454" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="455">
@@ -19076,13 +19076,13 @@
         </is>
       </c>
       <c r="H466" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I466" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J466" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="467">
@@ -19556,13 +19556,13 @@
         </is>
       </c>
       <c r="H478" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I478" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J478" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="479">
@@ -20036,13 +20036,13 @@
         </is>
       </c>
       <c r="H490" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I490" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J490" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="491">
@@ -20516,13 +20516,13 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I502" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J502" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="503">
@@ -20996,13 +20996,13 @@
         </is>
       </c>
       <c r="H514" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I514" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J514" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="515">
@@ -21476,13 +21476,13 @@
         </is>
       </c>
       <c r="H526" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I526" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J526" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="527">
@@ -21956,13 +21956,13 @@
         </is>
       </c>
       <c r="H538" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I538" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J538" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="539">
@@ -22436,13 +22436,13 @@
         </is>
       </c>
       <c r="H550" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I550" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J550" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="551">
@@ -22916,13 +22916,13 @@
         </is>
       </c>
       <c r="H562" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I562" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J562" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="563">
@@ -23396,13 +23396,13 @@
         </is>
       </c>
       <c r="H574" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I574" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J574" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="575">
@@ -23876,13 +23876,13 @@
         </is>
       </c>
       <c r="H586" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I586" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J586" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="587">
@@ -24356,13 +24356,13 @@
         </is>
       </c>
       <c r="H598" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I598" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J598" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="599">
@@ -24836,13 +24836,13 @@
         </is>
       </c>
       <c r="H610" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I610" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J610" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="611">
@@ -25316,13 +25316,13 @@
         </is>
       </c>
       <c r="H622" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I622" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J622" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="623">
@@ -25796,13 +25796,13 @@
         </is>
       </c>
       <c r="H634" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I634" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J634" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="635">
@@ -26276,13 +26276,13 @@
         </is>
       </c>
       <c r="H646" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I646" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J646" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="647">
@@ -26756,13 +26756,13 @@
         </is>
       </c>
       <c r="H658" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I658" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J658" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="659">
@@ -27236,13 +27236,13 @@
         </is>
       </c>
       <c r="H670" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I670" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J670" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="671">
@@ -27716,13 +27716,13 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I682" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="683">
@@ -28196,13 +28196,13 @@
         </is>
       </c>
       <c r="H694" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I694" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J694" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="695">
@@ -28676,13 +28676,13 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I706" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J706" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="707">
@@ -29156,13 +29156,13 @@
         </is>
       </c>
       <c r="H718" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I718" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J718" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="719">
@@ -29636,13 +29636,13 @@
         </is>
       </c>
       <c r="H730" t="n">
-        <v>20.99476293929997</v>
+        <v>21.01895841504065</v>
       </c>
       <c r="I730" t="n">
-        <v>0.7781877739008637</v>
+        <v>0.779265491467886</v>
       </c>
       <c r="J730" t="n">
-        <v>0.2762270106607257</v>
+        <v>0.2764550746538694</v>
       </c>
     </row>
     <row r="731">
@@ -30116,13 +30116,13 @@
         </is>
       </c>
       <c r="H742" t="n">
-        <v>23.68059471514381</v>
+        <v>23.70400312913826</v>
       </c>
       <c r="I742" t="n">
-        <v>0.8638404153612619</v>
+        <v>0.8648891305145239</v>
       </c>
       <c r="J742" t="n">
-        <v>0.3111230178306882</v>
+        <v>0.311351899079466</v>
       </c>
     </row>
     <row r="743">
@@ -30596,13 +30596,13 @@
         </is>
       </c>
       <c r="H754" t="n">
-        <v>24.22003017046537</v>
+        <v>24.2430519551496</v>
       </c>
       <c r="I754" t="n">
-        <v>0.8799320271302988</v>
+        <v>0.8809650223812029</v>
       </c>
       <c r="J754" t="n">
-        <v>0.3186681817711585</v>
+        <v>0.31889419824497</v>
       </c>
     </row>
     <row r="755">
@@ -31076,13 +31076,13 @@
         </is>
       </c>
       <c r="H766" t="n">
-        <v>27.27883236618172</v>
+        <v>27.30210055318548</v>
       </c>
       <c r="I766" t="n">
-        <v>0.9830352957035049</v>
+        <v>0.9840847356805736</v>
       </c>
       <c r="J766" t="n">
-        <v>0.3545982755248744</v>
+        <v>0.354844602325362</v>
       </c>
     </row>
     <row r="767">
@@ -31556,13 +31556,13 @@
         </is>
       </c>
       <c r="H778" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I778" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J778" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="779">
@@ -32036,13 +32036,13 @@
         </is>
       </c>
       <c r="H790" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I790" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J790" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="791">
@@ -32516,13 +32516,13 @@
         </is>
       </c>
       <c r="H802" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I802" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J802" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="803">
@@ -32996,13 +32996,13 @@
         </is>
       </c>
       <c r="H814" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I814" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J814" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="815">
@@ -33476,13 +33476,13 @@
         </is>
       </c>
       <c r="H826" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I826" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J826" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="827">
@@ -33956,13 +33956,13 @@
         </is>
       </c>
       <c r="H838" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I838" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J838" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="839">
@@ -34436,13 +34436,13 @@
         </is>
       </c>
       <c r="H850" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I850" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J850" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="851">
@@ -34916,13 +34916,13 @@
         </is>
       </c>
       <c r="H862" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I862" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J862" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="863">
@@ -35396,13 +35396,13 @@
         </is>
       </c>
       <c r="H874" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I874" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J874" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="875">
@@ -35876,13 +35876,13 @@
         </is>
       </c>
       <c r="H886" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I886" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J886" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="887">
@@ -36356,13 +36356,13 @@
         </is>
       </c>
       <c r="H898" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I898" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J898" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="899">
@@ -36836,13 +36836,13 @@
         </is>
       </c>
       <c r="H910" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I910" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J910" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="911">
@@ -37316,13 +37316,13 @@
         </is>
       </c>
       <c r="H922" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I922" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J922" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="923">
@@ -37796,13 +37796,13 @@
         </is>
       </c>
       <c r="H934" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I934" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J934" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="935">
@@ -38276,13 +38276,13 @@
         </is>
       </c>
       <c r="H946" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I946" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J946" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="947">
@@ -38756,13 +38756,13 @@
         </is>
       </c>
       <c r="H958" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I958" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J958" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="959">
@@ -39236,13 +39236,13 @@
         </is>
       </c>
       <c r="H970" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I970" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J970" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="971">
@@ -39716,13 +39716,13 @@
         </is>
       </c>
       <c r="H982" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I982" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J982" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="983">
@@ -40196,13 +40196,13 @@
         </is>
       </c>
       <c r="H994" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I994" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J994" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="995">
@@ -40676,13 +40676,13 @@
         </is>
       </c>
       <c r="H1006" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I1006" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J1006" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="1007">
@@ -41156,13 +41156,13 @@
         </is>
       </c>
       <c r="H1018" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I1018" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J1018" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="1019">
@@ -41636,13 +41636,13 @@
         </is>
       </c>
       <c r="H1030" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I1030" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J1030" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="1031">
@@ -42116,13 +42116,13 @@
         </is>
       </c>
       <c r="H1042" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I1042" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J1042" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="1043">
@@ -42596,13 +42596,13 @@
         </is>
       </c>
       <c r="H1054" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I1054" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J1054" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="1055">
@@ -43076,13 +43076,13 @@
         </is>
       </c>
       <c r="H1066" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I1066" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J1066" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="1067">
@@ -43556,13 +43556,13 @@
         </is>
       </c>
       <c r="H1078" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I1078" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J1078" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="1079">
@@ -44036,13 +44036,13 @@
         </is>
       </c>
       <c r="H1090" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I1090" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J1090" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="1091">
@@ -44516,13 +44516,13 @@
         </is>
       </c>
       <c r="H1102" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I1102" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J1102" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="1103">
@@ -44996,13 +44996,13 @@
         </is>
       </c>
       <c r="H1114" t="n">
-        <v>21.0213121000403</v>
+        <v>21.04987097905213</v>
       </c>
       <c r="I1114" t="n">
-        <v>0.7793974190394373</v>
+        <v>0.7806731686661846</v>
       </c>
       <c r="J1114" t="n">
-        <v>0.2765401494724529</v>
+        <v>0.2768186957426594</v>
       </c>
     </row>
     <row r="1115">
@@ -45476,13 +45476,13 @@
         </is>
       </c>
       <c r="H1126" t="n">
-        <v>23.70757455914722</v>
+        <v>23.73602669853241</v>
       </c>
       <c r="I1126" t="n">
-        <v>0.8650627391970312</v>
+        <v>0.8663401243914169</v>
       </c>
       <c r="J1126" t="n">
-        <v>0.3114282871718717</v>
+        <v>0.3117164906234569</v>
       </c>
     </row>
     <row r="1127">
@@ -45956,13 +45956,13 @@
         </is>
       </c>
       <c r="H1138" t="n">
-        <v>24.2479657352197</v>
+        <v>24.27636119677014</v>
       </c>
       <c r="I1138" t="n">
-        <v>0.881193737212051</v>
+        <v>0.882469846367818</v>
       </c>
       <c r="J1138" t="n">
-        <v>0.3189768603780808</v>
+        <v>0.3192651376869636</v>
       </c>
     </row>
     <row r="1139">
@@ -46436,13 +46436,13 @@
         </is>
       </c>
       <c r="H1150" t="n">
-        <v>27.30291232021607</v>
+        <v>27.33136241830373</v>
       </c>
       <c r="I1150" t="n">
-        <v>0.9841272461457049</v>
+        <v>0.9854132406633692</v>
       </c>
       <c r="J1150" t="n">
-        <v>0.3548824075027712</v>
+        <v>0.3551947167055764</v>
       </c>
     </row>
     <row r="1151">
@@ -46916,13 +46916,13 @@
         </is>
       </c>
       <c r="H1162" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1162" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1162" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1163">
@@ -47396,13 +47396,13 @@
         </is>
       </c>
       <c r="H1174" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1174" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1174" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1175">
@@ -47876,13 +47876,13 @@
         </is>
       </c>
       <c r="H1186" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1186" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1186" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1187">
@@ -48356,13 +48356,13 @@
         </is>
       </c>
       <c r="H1198" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1198" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1198" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1199">
@@ -48836,13 +48836,13 @@
         </is>
       </c>
       <c r="H1210" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1210" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1210" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1211">
@@ -49316,13 +49316,13 @@
         </is>
       </c>
       <c r="H1222" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1222" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1222" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1223">
@@ -49796,13 +49796,13 @@
         </is>
       </c>
       <c r="H1234" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1234" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1234" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1235">
@@ -50276,13 +50276,13 @@
         </is>
       </c>
       <c r="H1246" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1246" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1246" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1247">
@@ -50756,13 +50756,13 @@
         </is>
       </c>
       <c r="H1258" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1258" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1258" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1259">
@@ -51236,13 +51236,13 @@
         </is>
       </c>
       <c r="H1270" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1270" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1270" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1271">
@@ -51716,13 +51716,13 @@
         </is>
       </c>
       <c r="H1282" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1282" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1282" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1283">
@@ -52196,13 +52196,13 @@
         </is>
       </c>
       <c r="H1294" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1294" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1294" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1295">
@@ -52676,13 +52676,13 @@
         </is>
       </c>
       <c r="H1306" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1306" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1306" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1307">
@@ -53156,13 +53156,13 @@
         </is>
       </c>
       <c r="H1318" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1318" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1318" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1319">
@@ -53636,13 +53636,13 @@
         </is>
       </c>
       <c r="H1330" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1330" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1330" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1331">
@@ -54116,13 +54116,13 @@
         </is>
       </c>
       <c r="H1342" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1342" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1342" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1343">
@@ -54596,13 +54596,13 @@
         </is>
       </c>
       <c r="H1354" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1354" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1354" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1355">
@@ -55076,13 +55076,13 @@
         </is>
       </c>
       <c r="H1366" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1366" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1366" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1367">
@@ -55556,13 +55556,13 @@
         </is>
       </c>
       <c r="H1378" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1378" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1378" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1379">
@@ -56036,13 +56036,13 @@
         </is>
       </c>
       <c r="H1390" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1390" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1390" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1391">
@@ -56516,13 +56516,13 @@
         </is>
       </c>
       <c r="H1402" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1402" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1402" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1403">
@@ -56996,13 +56996,13 @@
         </is>
       </c>
       <c r="H1414" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1414" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1414" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1415">
@@ -57476,13 +57476,13 @@
         </is>
       </c>
       <c r="H1426" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1426" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1426" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1427">
@@ -57956,13 +57956,13 @@
         </is>
       </c>
       <c r="H1438" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1438" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1438" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1439">
@@ -58436,13 +58436,13 @@
         </is>
       </c>
       <c r="H1450" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1450" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1450" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1451">
@@ -58916,13 +58916,13 @@
         </is>
       </c>
       <c r="H1462" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1462" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1462" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1463">
@@ -59396,13 +59396,13 @@
         </is>
       </c>
       <c r="H1474" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1474" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1474" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1475">
@@ -59876,13 +59876,13 @@
         </is>
       </c>
       <c r="H1486" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1486" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1486" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1487">
@@ -60356,13 +60356,13 @@
         </is>
       </c>
       <c r="H1498" t="n">
-        <v>21.02915600240668</v>
+        <v>21.02558343229439</v>
       </c>
       <c r="I1498" t="n">
-        <v>0.7797100063905408</v>
+        <v>0.7795498029034491</v>
       </c>
       <c r="J1498" t="n">
-        <v>0.2765422553977208</v>
+        <v>0.2765092471257591</v>
       </c>
     </row>
     <row r="1499">
@@ -60836,13 +60836,13 @@
         </is>
       </c>
       <c r="H1510" t="n">
-        <v>23.71161182333783</v>
+        <v>23.70894681622354</v>
       </c>
       <c r="I1510" t="n">
-        <v>0.8652278723357847</v>
+        <v>0.8651086097971251</v>
       </c>
       <c r="J1510" t="n">
-        <v>0.3114271619436818</v>
+        <v>0.3114048566682167</v>
       </c>
     </row>
     <row r="1511">
@@ -61316,13 +61316,13 @@
         </is>
       </c>
       <c r="H1522" t="n">
-        <v>24.24871431350601</v>
+        <v>24.24633868837352</v>
       </c>
       <c r="I1522" t="n">
-        <v>0.8812193945961736</v>
+        <v>0.8811131044693309</v>
       </c>
       <c r="J1522" t="n">
-        <v>0.318950803653731</v>
+        <v>0.3189312629839666</v>
       </c>
     </row>
     <row r="1523">
@@ -61796,13 +61796,13 @@
         </is>
       </c>
       <c r="H1534" t="n">
-        <v>27.31194635945891</v>
+        <v>27.31006881368785</v>
       </c>
       <c r="I1534" t="n">
-        <v>0.9845342746412109</v>
+        <v>0.9844508625962969</v>
       </c>
       <c r="J1534" t="n">
-        <v>0.3549703107744522</v>
+        <v>0.3549570606487576</v>
       </c>
     </row>
     <row r="1535">

--- a/Modelos em Python/resultados_com_erros_modelos_resto.xlsx
+++ b/Modelos em Python/resultados_com_erros_modelos_resto.xlsx
@@ -836,13 +836,13 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="11">
@@ -1316,13 +1316,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="23">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I34" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="35">
@@ -2276,13 +2276,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I46" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J46" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="47">
@@ -2756,13 +2756,13 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I58" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="59">
@@ -3236,13 +3236,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I70" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J70" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="71">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J82" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="83">
@@ -4196,13 +4196,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I94" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J94" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="95">
@@ -4676,13 +4676,13 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I106" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="107">
@@ -5156,13 +5156,13 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J118" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="119">
@@ -5636,13 +5636,13 @@
         </is>
       </c>
       <c r="H130" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I130" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J130" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="131">
@@ -6116,13 +6116,13 @@
         </is>
       </c>
       <c r="H142" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I142" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J142" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="143">
@@ -6596,13 +6596,13 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I154" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="155">
@@ -7076,13 +7076,13 @@
         </is>
       </c>
       <c r="H166" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I166" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J166" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="167">
@@ -7556,13 +7556,13 @@
         </is>
       </c>
       <c r="H178" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I178" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J178" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="179">
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="H190" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I190" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J190" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="191">
@@ -8516,13 +8516,13 @@
         </is>
       </c>
       <c r="H202" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I202" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="203">
@@ -8996,13 +8996,13 @@
         </is>
       </c>
       <c r="H214" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I214" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J214" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="215">
@@ -9476,13 +9476,13 @@
         </is>
       </c>
       <c r="H226" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I226" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J226" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="227">
@@ -9956,13 +9956,13 @@
         </is>
       </c>
       <c r="H238" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I238" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J238" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="239">
@@ -10436,13 +10436,13 @@
         </is>
       </c>
       <c r="H250" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I250" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J250" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="251">
@@ -10916,13 +10916,13 @@
         </is>
       </c>
       <c r="H262" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I262" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J262" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="263">
@@ -11396,13 +11396,13 @@
         </is>
       </c>
       <c r="H274" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I274" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J274" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="275">
@@ -11876,13 +11876,13 @@
         </is>
       </c>
       <c r="H286" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I286" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J286" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="287">
@@ -12356,13 +12356,13 @@
         </is>
       </c>
       <c r="H298" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I298" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J298" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="299">
@@ -12836,13 +12836,13 @@
         </is>
       </c>
       <c r="H310" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I310" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J310" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="311">
@@ -13316,13 +13316,13 @@
         </is>
       </c>
       <c r="H322" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I322" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J322" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="323">
@@ -13796,13 +13796,13 @@
         </is>
       </c>
       <c r="H334" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I334" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J334" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="335">
@@ -14276,13 +14276,13 @@
         </is>
       </c>
       <c r="H346" t="n">
-        <v>16.64384955730806</v>
+        <v>16.6438258756546</v>
       </c>
       <c r="I346" t="n">
-        <v>0.5974621839563153</v>
+        <v>0.5974567469526338</v>
       </c>
       <c r="J346" t="n">
-        <v>0.1895193421248145</v>
+        <v>0.1895136696824831</v>
       </c>
     </row>
     <row r="347">
@@ -14756,13 +14756,13 @@
         </is>
       </c>
       <c r="H358" t="n">
-        <v>18.18173315053408</v>
+        <v>18.18525780373947</v>
       </c>
       <c r="I358" t="n">
-        <v>0.6365849313358724</v>
+        <v>0.636643955077832</v>
       </c>
       <c r="J358" t="n">
-        <v>0.2047713450640102</v>
+        <v>0.2047983127273373</v>
       </c>
     </row>
     <row r="359">
@@ -15236,13 +15236,13 @@
         </is>
       </c>
       <c r="H370" t="n">
-        <v>18.37523045863365</v>
+        <v>18.3814676852121</v>
       </c>
       <c r="I370" t="n">
-        <v>0.6386618512095427</v>
+        <v>0.6387676680684929</v>
       </c>
       <c r="J370" t="n">
-        <v>0.2064106047387013</v>
+        <v>0.2064630178731778</v>
       </c>
     </row>
     <row r="371">
@@ -15716,13 +15716,13 @@
         </is>
       </c>
       <c r="H382" t="n">
-        <v>20.70356701213879</v>
+        <v>20.70384577313722</v>
       </c>
       <c r="I382" t="n">
-        <v>0.7121208241911026</v>
+        <v>0.7121308206505189</v>
       </c>
       <c r="J382" t="n">
-        <v>0.231180506135086</v>
+        <v>0.231175799918299</v>
       </c>
     </row>
     <row r="383">
@@ -16196,13 +16196,13 @@
         </is>
       </c>
       <c r="H394" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I394" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J394" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="395">
@@ -16676,13 +16676,13 @@
         </is>
       </c>
       <c r="H406" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I406" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J406" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="407">
@@ -17156,13 +17156,13 @@
         </is>
       </c>
       <c r="H418" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I418" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J418" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="419">
@@ -17636,13 +17636,13 @@
         </is>
       </c>
       <c r="H430" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I430" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J430" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="431">
@@ -18116,13 +18116,13 @@
         </is>
       </c>
       <c r="H442" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I442" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J442" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="443">
@@ -18596,13 +18596,13 @@
         </is>
       </c>
       <c r="H454" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I454" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J454" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="455">
@@ -19076,13 +19076,13 @@
         </is>
       </c>
       <c r="H466" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I466" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J466" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="467">
@@ -19556,13 +19556,13 @@
         </is>
       </c>
       <c r="H478" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I478" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J478" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="479">
@@ -20036,13 +20036,13 @@
         </is>
       </c>
       <c r="H490" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I490" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J490" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="491">
@@ -20516,13 +20516,13 @@
         </is>
       </c>
       <c r="H502" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I502" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J502" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="503">
@@ -20996,13 +20996,13 @@
         </is>
       </c>
       <c r="H514" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I514" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J514" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="515">
@@ -21476,13 +21476,13 @@
         </is>
       </c>
       <c r="H526" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I526" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J526" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="527">
@@ -21956,13 +21956,13 @@
         </is>
       </c>
       <c r="H538" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I538" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J538" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="539">
@@ -22436,13 +22436,13 @@
         </is>
       </c>
       <c r="H550" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I550" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J550" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="551">
@@ -22916,13 +22916,13 @@
         </is>
       </c>
       <c r="H562" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I562" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J562" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="563">
@@ -23396,13 +23396,13 @@
         </is>
       </c>
       <c r="H574" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I574" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J574" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="575">
@@ -23876,13 +23876,13 @@
         </is>
       </c>
       <c r="H586" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I586" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J586" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="587">
@@ -24356,13 +24356,13 @@
         </is>
       </c>
       <c r="H598" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I598" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J598" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="599">
@@ -24836,13 +24836,13 @@
         </is>
       </c>
       <c r="H610" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I610" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J610" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="611">
@@ -25316,13 +25316,13 @@
         </is>
       </c>
       <c r="H622" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I622" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J622" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="623">
@@ -25796,13 +25796,13 @@
         </is>
       </c>
       <c r="H634" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I634" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J634" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="635">
@@ -26276,13 +26276,13 @@
         </is>
       </c>
       <c r="H646" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I646" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J646" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="647">
@@ -26756,13 +26756,13 @@
         </is>
       </c>
       <c r="H658" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I658" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J658" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="659">
@@ -27236,13 +27236,13 @@
         </is>
       </c>
       <c r="H670" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I670" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J670" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="671">
@@ -27716,13 +27716,13 @@
         </is>
       </c>
       <c r="H682" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I682" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J682" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="683">
@@ -28196,13 +28196,13 @@
         </is>
       </c>
       <c r="H694" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I694" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J694" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="695">
@@ -28676,13 +28676,13 @@
         </is>
       </c>
       <c r="H706" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I706" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J706" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="707">
@@ -29156,13 +29156,13 @@
         </is>
       </c>
       <c r="H718" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I718" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J718" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="719">
@@ -29636,13 +29636,13 @@
         </is>
       </c>
       <c r="H730" t="n">
-        <v>21.01895841504065</v>
+        <v>21.03316691494529</v>
       </c>
       <c r="I730" t="n">
-        <v>0.779265491467886</v>
+        <v>0.7799019051016769</v>
       </c>
       <c r="J730" t="n">
-        <v>0.2764550746538694</v>
+        <v>0.276598653107921</v>
       </c>
     </row>
     <row r="731">
@@ -30116,13 +30116,13 @@
         </is>
       </c>
       <c r="H742" t="n">
-        <v>23.70400312913826</v>
+        <v>23.71862595846822</v>
       </c>
       <c r="I742" t="n">
-        <v>0.8648891305145239</v>
+        <v>0.8655473078242436</v>
       </c>
       <c r="J742" t="n">
-        <v>0.311351899079466</v>
+        <v>0.3115069115375103</v>
       </c>
     </row>
     <row r="743">
@@ -30596,13 +30596,13 @@
         </is>
       </c>
       <c r="H754" t="n">
-        <v>24.2430519551496</v>
+        <v>24.25794323659502</v>
       </c>
       <c r="I754" t="n">
-        <v>0.8809650223812029</v>
+        <v>0.8816359385641436</v>
       </c>
       <c r="J754" t="n">
-        <v>0.31889419824497</v>
+        <v>0.3190530187292639</v>
       </c>
     </row>
     <row r="755">
@@ -31076,13 +31076,13 @@
         </is>
       </c>
       <c r="H766" t="n">
-        <v>27.30210055318548</v>
+        <v>27.31653751934055</v>
       </c>
       <c r="I766" t="n">
-        <v>0.9840847356805736</v>
+        <v>0.9847385990156956</v>
       </c>
       <c r="J766" t="n">
-        <v>0.354844602325362</v>
+        <v>0.3550099177791785</v>
       </c>
     </row>
     <row r="767">
@@ -31556,13 +31556,13 @@
         </is>
       </c>
       <c r="H778" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I778" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J778" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="779">
@@ -32036,13 +32036,13 @@
         </is>
       </c>
       <c r="H790" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I790" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J790" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="791">
@@ -32516,13 +32516,13 @@
         </is>
       </c>
       <c r="H802" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I802" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J802" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="803">
@@ -32996,13 +32996,13 @@
         </is>
       </c>
       <c r="H814" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I814" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J814" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="815">
@@ -33476,13 +33476,13 @@
         </is>
       </c>
       <c r="H826" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I826" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J826" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="827">
@@ -33956,13 +33956,13 @@
         </is>
       </c>
       <c r="H838" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I838" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J838" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="839">
@@ -34436,13 +34436,13 @@
         </is>
       </c>
       <c r="H850" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I850" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J850" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="851">
@@ -34916,13 +34916,13 @@
         </is>
       </c>
       <c r="H862" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I862" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J862" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="863">
@@ -35396,13 +35396,13 @@
         </is>
       </c>
       <c r="H874" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I874" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J874" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="875">
@@ -35876,13 +35876,13 @@
         </is>
       </c>
       <c r="H886" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I886" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J886" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="887">
@@ -36356,13 +36356,13 @@
         </is>
       </c>
       <c r="H898" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I898" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J898" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="899">
@@ -36836,13 +36836,13 @@
         </is>
       </c>
       <c r="H910" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I910" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J910" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="911">
@@ -37316,13 +37316,13 @@
         </is>
       </c>
       <c r="H922" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I922" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J922" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="923">
@@ -37796,13 +37796,13 @@
         </is>
       </c>
       <c r="H934" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I934" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J934" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="935">
@@ -38276,13 +38276,13 @@
         </is>
       </c>
       <c r="H946" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I946" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J946" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="947">
@@ -38756,13 +38756,13 @@
         </is>
       </c>
       <c r="H958" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I958" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J958" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="959">
@@ -39236,13 +39236,13 @@
         </is>
       </c>
       <c r="H970" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I970" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J970" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="971">
@@ -39716,13 +39716,13 @@
         </is>
       </c>
       <c r="H982" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I982" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J982" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="983">
@@ -40196,13 +40196,13 @@
         </is>
       </c>
       <c r="H994" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I994" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J994" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="995">
@@ -40676,13 +40676,13 @@
         </is>
       </c>
       <c r="H1006" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I1006" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J1006" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="1007">
@@ -41156,13 +41156,13 @@
         </is>
       </c>
       <c r="H1018" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I1018" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J1018" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="1019">
@@ -41636,13 +41636,13 @@
         </is>
       </c>
       <c r="H1030" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I1030" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J1030" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="1031">
@@ -42116,13 +42116,13 @@
         </is>
       </c>
       <c r="H1042" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I1042" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J1042" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="1043">
@@ -42596,13 +42596,13 @@
         </is>
       </c>
       <c r="H1054" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I1054" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J1054" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="1055">
@@ -43076,13 +43076,13 @@
         </is>
       </c>
       <c r="H1066" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I1066" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J1066" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="1067">
@@ -43556,13 +43556,13 @@
         </is>
       </c>
       <c r="H1078" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I1078" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J1078" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="1079">
@@ -44036,13 +44036,13 @@
         </is>
       </c>
       <c r="H1090" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I1090" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J1090" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="1091">
@@ -44516,13 +44516,13 @@
         </is>
       </c>
       <c r="H1102" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I1102" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J1102" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="1103">
@@ -44996,13 +44996,13 @@
         </is>
       </c>
       <c r="H1114" t="n">
-        <v>21.04987097905213</v>
+        <v>21.04063155110538</v>
       </c>
       <c r="I1114" t="n">
-        <v>0.7806731686661846</v>
+        <v>0.7802612719443411</v>
       </c>
       <c r="J1114" t="n">
-        <v>0.2768186957426594</v>
+        <v>0.2767308352366832</v>
       </c>
     </row>
     <row r="1115">
@@ -45476,13 +45476,13 @@
         </is>
       </c>
       <c r="H1126" t="n">
-        <v>23.73602669853241</v>
+        <v>23.72659592267785</v>
       </c>
       <c r="I1126" t="n">
-        <v>0.8663401243914169</v>
+        <v>0.865916460799298</v>
       </c>
       <c r="J1126" t="n">
-        <v>0.3117164906234569</v>
+        <v>0.3116206569051452</v>
       </c>
     </row>
     <row r="1127">
@@ -45956,13 +45956,13 @@
         </is>
       </c>
       <c r="H1138" t="n">
-        <v>24.27636119677014</v>
+        <v>24.26680218722931</v>
       </c>
       <c r="I1138" t="n">
-        <v>0.882469846367818</v>
+        <v>0.8820393632124901</v>
       </c>
       <c r="J1138" t="n">
-        <v>0.3192651376869636</v>
+        <v>0.3191663762124701</v>
       </c>
     </row>
     <row r="1139">
@@ -46436,13 +46436,13 @@
         </is>
       </c>
       <c r="H1150" t="n">
-        <v>27.33136241830373</v>
+        <v>27.32203450138865</v>
       </c>
       <c r="I1150" t="n">
-        <v>0.9854132406633692</v>
+        <v>0.984991637860964</v>
       </c>
       <c r="J1150" t="n">
-        <v>0.3551947167055764</v>
+        <v>0.3550930059430906</v>
       </c>
     </row>
     <row r="1151">
@@ -46916,13 +46916,13 @@
         </is>
       </c>
       <c r="H1162" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1162" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1162" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1163">
@@ -47396,13 +47396,13 @@
         </is>
       </c>
       <c r="H1174" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1174" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1174" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1175">
@@ -47876,13 +47876,13 @@
         </is>
       </c>
       <c r="H1186" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1186" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1186" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1187">
@@ -48356,13 +48356,13 @@
         </is>
       </c>
       <c r="H1198" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1198" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1198" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1199">
@@ -48836,13 +48836,13 @@
         </is>
       </c>
       <c r="H1210" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1210" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1210" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1211">
@@ -49316,13 +49316,13 @@
         </is>
       </c>
       <c r="H1222" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1222" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1222" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1223">
@@ -49796,13 +49796,13 @@
         </is>
       </c>
       <c r="H1234" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1234" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1234" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1235">
@@ -50276,13 +50276,13 @@
         </is>
       </c>
       <c r="H1246" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1246" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1246" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1247">
@@ -50756,13 +50756,13 @@
         </is>
       </c>
       <c r="H1258" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1258" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1258" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1259">
@@ -51236,13 +51236,13 @@
         </is>
       </c>
       <c r="H1270" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1270" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1270" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1271">
@@ -51716,13 +51716,13 @@
         </is>
       </c>
       <c r="H1282" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1282" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1282" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1283">
@@ -52196,13 +52196,13 @@
         </is>
       </c>
       <c r="H1294" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1294" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1294" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1295">
@@ -52676,13 +52676,13 @@
         </is>
       </c>
       <c r="H1306" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1306" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1306" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1307">
@@ -53156,13 +53156,13 @@
         </is>
       </c>
       <c r="H1318" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1318" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1318" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1319">
@@ -53636,13 +53636,13 @@
         </is>
       </c>
       <c r="H1330" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1330" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1330" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1331">
@@ -54116,13 +54116,13 @@
         </is>
       </c>
       <c r="H1342" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1342" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1342" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1343">
@@ -54596,13 +54596,13 @@
         </is>
       </c>
       <c r="H1354" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1354" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1354" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1355">
@@ -55076,13 +55076,13 @@
         </is>
       </c>
       <c r="H1366" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1366" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1366" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1367">
@@ -55556,13 +55556,13 @@
         </is>
       </c>
       <c r="H1378" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1378" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1378" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1379">
@@ -56036,13 +56036,13 @@
         </is>
       </c>
       <c r="H1390" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1390" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1390" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1391">
@@ -56516,13 +56516,13 @@
         </is>
       </c>
       <c r="H1402" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1402" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1402" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1403">
@@ -56996,13 +56996,13 @@
         </is>
       </c>
       <c r="H1414" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1414" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1414" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1415">
@@ -57476,13 +57476,13 @@
         </is>
       </c>
       <c r="H1426" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1426" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1426" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1427">
@@ -57956,13 +57956,13 @@
         </is>
       </c>
       <c r="H1438" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1438" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1438" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1439">
@@ -58436,13 +58436,13 @@
         </is>
       </c>
       <c r="H1450" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1450" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1450" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1451">
@@ -58916,13 +58916,13 @@
         </is>
       </c>
       <c r="H1462" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1462" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1462" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1463">
@@ -59396,13 +59396,13 @@
         </is>
       </c>
       <c r="H1474" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1474" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1474" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1475">
@@ -59876,13 +59876,13 @@
         </is>
       </c>
       <c r="H1486" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1486" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1486" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1487">
@@ -60356,13 +60356,13 @@
         </is>
       </c>
       <c r="H1498" t="n">
-        <v>21.02558343229439</v>
+        <v>21.01799467067769</v>
       </c>
       <c r="I1498" t="n">
-        <v>0.7795498029034491</v>
+        <v>0.7792128589107232</v>
       </c>
       <c r="J1498" t="n">
-        <v>0.2765092471257591</v>
+        <v>0.2764326624907303</v>
       </c>
     </row>
     <row r="1499">
@@ -60836,13 +60836,13 @@
         </is>
       </c>
       <c r="H1510" t="n">
-        <v>23.70894681622354</v>
+        <v>23.69951426510422</v>
       </c>
       <c r="I1510" t="n">
-        <v>0.8651086097971251</v>
+        <v>0.8646844595460164</v>
       </c>
       <c r="J1510" t="n">
-        <v>0.3114048566682167</v>
+        <v>0.3112995913387199</v>
       </c>
     </row>
     <row r="1511">
@@ -61316,13 +61316,13 @@
         </is>
       </c>
       <c r="H1522" t="n">
-        <v>24.24633868837352</v>
+        <v>24.23637176884694</v>
       </c>
       <c r="I1522" t="n">
-        <v>0.8811131044693309</v>
+        <v>0.8806640724337109</v>
       </c>
       <c r="J1522" t="n">
-        <v>0.3189312629839666</v>
+        <v>0.318820128575201</v>
       </c>
     </row>
     <row r="1523">
@@ -61796,13 +61796,13 @@
         </is>
       </c>
       <c r="H1534" t="n">
-        <v>27.31006881368785</v>
+        <v>27.29882232917956</v>
       </c>
       <c r="I1534" t="n">
-        <v>0.9844508625962969</v>
+        <v>0.9839393486147793</v>
       </c>
       <c r="J1534" t="n">
-        <v>0.3549570606487576</v>
+        <v>0.3548180684987735</v>
       </c>
     </row>
     <row r="1535">
